--- a/vajrang/Week1Calculator_Reframework/Tests/Tests.xlsx
+++ b/vajrang/Week1Calculator_Reframework/Tests/Tests.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B09E86-E7F7-40F4-8A4B-0931C3A3679A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52945B9-4E24-49A8-B2CA-20D1CAE9EAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="12">
   <si>
     <t>WorkflowFile</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>SystemException</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>No exception thrown.</t>
   </si>
 </sst>
 </file>
@@ -395,11 +404,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="41.90625" customWidth="1"/>
+    <col min="1" max="2" width="41.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="21">
@@ -488,19 +497,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="46.36328125" customWidth="1"/>
-    <col min="2" max="2" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" customWidth="1"/>
-    <col min="4" max="4" width="135.6328125" customWidth="1"/>
+    <col min="1" max="1" width="46.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="135.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="18.5">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -512,6 +521,97 @@
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
